--- a/testdata/usedCarData.xlsx
+++ b/testdata/usedCarData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="138">
   <si>
     <t>City</t>
   </si>
@@ -41,30 +41,30 @@
     <t>Volkswagen</t>
   </si>
   <si>
+    <t>Ford</t>
+  </si>
+  <si>
     <t>Renault</t>
   </si>
   <si>
     <t>Mahindra</t>
   </si>
   <si>
-    <t>Ford</t>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Skoda</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Jeep</t>
   </si>
   <si>
     <t>MG</t>
   </si>
   <si>
-    <t>Jeep</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>Skoda</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
     <t>Audi</t>
   </si>
   <si>
@@ -74,337 +74,358 @@
     <t>BMW</t>
   </si>
   <si>
+    <t>Mercedes-Benz</t>
+  </si>
+  <si>
     <t>Hyundai Creta</t>
   </si>
   <si>
+    <t>KIA Seltos</t>
+  </si>
+  <si>
+    <t>Honda City</t>
+  </si>
+  <si>
     <t>Hyundai Grand i10</t>
   </si>
   <si>
-    <t>Honda City</t>
-  </si>
-  <si>
-    <t>KIA Seltos</t>
+    <t>Ford EcoSport</t>
+  </si>
+  <si>
+    <t>Honda Amaze</t>
+  </si>
+  <si>
+    <t>Hyundai Elite i20 2014-2017</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Celerio</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Swift</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Wagon R</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Baleno</t>
+  </si>
+  <si>
+    <t>Tata Tiago</t>
+  </si>
+  <si>
+    <t>Hyundai Santro</t>
+  </si>
+  <si>
+    <t>KIA Sonet</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Alto 800 2016 -19</t>
   </si>
   <si>
     <t>Renault Kwid</t>
   </si>
   <si>
-    <t>Tata Tiago</t>
-  </si>
-  <si>
-    <t>Hyundai Elite i20 2014-2017</t>
-  </si>
-  <si>
-    <t>Ford EcoSport</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Celerio</t>
-  </si>
-  <si>
-    <t>Honda Amaze</t>
-  </si>
-  <si>
-    <t>Hyundai Santro</t>
+    <t>Tata Nexon</t>
+  </si>
+  <si>
+    <t>Honda Jazz 2020-2023</t>
   </si>
   <si>
     <t>Maruti Suzuki Dzire</t>
   </si>
   <si>
-    <t>Maruti Suzuki Swift</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Wagon R</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Alto 800 2016 -19</t>
-  </si>
-  <si>
-    <t>Tata Nexon</t>
+    <t>Hyundai Elite i20</t>
+  </si>
+  <si>
+    <t>Hyundai Venue</t>
+  </si>
+  <si>
+    <t>Hyundai i20</t>
+  </si>
+  <si>
+    <t>Jeep Compass</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Alto K10</t>
+  </si>
+  <si>
+    <t>Hyundai Grand i10 Nios</t>
+  </si>
+  <si>
+    <t>Hyundai Venue 2022-2025</t>
+  </si>
+  <si>
+    <t>Volkswagen Ameo 2016- 2020</t>
+  </si>
+  <si>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>Nissan Magnite 2020 - 2024</t>
+  </si>
+  <si>
+    <t>Skoda Kushaq</t>
+  </si>
+  <si>
+    <t>Maruti Alto K10</t>
+  </si>
+  <si>
+    <t>Maruti Grand Vitara</t>
+  </si>
+  <si>
+    <t>Maruti Wagon R</t>
+  </si>
+  <si>
+    <t>Tata Altroz</t>
+  </si>
+  <si>
+    <t>Tata Harrier</t>
+  </si>
+  <si>
+    <t>Toyota Glanza</t>
+  </si>
+  <si>
+    <t>Honda Brio</t>
+  </si>
+  <si>
+    <t>Honda Elevate</t>
+  </si>
+  <si>
+    <t>Hyundai Aura</t>
   </si>
   <si>
     <t>Hyundai Xcent</t>
   </si>
   <si>
-    <t>KIA Sonet</t>
+    <t>MG Hector</t>
+  </si>
+  <si>
+    <t>Mahindra Scorpio N</t>
+  </si>
+  <si>
+    <t>Mahindra XUV300</t>
   </si>
   <si>
     <t>Maruti Baleno</t>
   </si>
   <si>
-    <t>Maruti Suzuki Baleno</t>
-  </si>
-  <si>
-    <t>Hyundai Venue 2022-2025</t>
-  </si>
-  <si>
-    <t>Jeep Compass</t>
-  </si>
-  <si>
-    <t>Maruti Swift</t>
-  </si>
-  <si>
-    <t>Honda Jazz 2020-2023</t>
-  </si>
-  <si>
-    <t>Hyundai Elite i20</t>
-  </si>
-  <si>
-    <t>Skoda Kushaq</t>
-  </si>
-  <si>
-    <t>Hyundai Grand i10 Nios</t>
-  </si>
-  <si>
-    <t>Maruti Alto K10</t>
-  </si>
-  <si>
-    <t>Tata Altroz</t>
-  </si>
-  <si>
-    <t>Hyundai Venue</t>
-  </si>
-  <si>
-    <t>Hyundai i20</t>
-  </si>
-  <si>
-    <t>MG Hector</t>
-  </si>
-  <si>
     <t>Maruti Celerio</t>
   </si>
   <si>
-    <t>Maruti Suzuki Alto K10</t>
+    <t>Maruti Ignis</t>
   </si>
   <si>
     <t>Maruti Suzuki Swift Dzire</t>
   </si>
   <si>
-    <t>Volkswagen Ameo 2016- 2020</t>
+    <t>Skoda Rapid 2021-2022</t>
+  </si>
+  <si>
+    <t>Tata Tigor</t>
   </si>
   <si>
     <t>Volkswagen CrossPolo</t>
   </si>
   <si>
+    <t>Volkswagen Taigun</t>
+  </si>
+  <si>
+    <t>Volkswagen Vento 2019-20</t>
+  </si>
+  <si>
     <t>Volkswagen Virtus</t>
   </si>
   <si>
-    <t>Honda Brio</t>
-  </si>
-  <si>
-    <t>Honda Elevate</t>
-  </si>
-  <si>
-    <t>Hyundai Aura</t>
+    <t>Audi A4</t>
+  </si>
+  <si>
+    <t>Ford Figo 2015-2018</t>
+  </si>
+  <si>
+    <t>Honda WR-V 2020-2023</t>
+  </si>
+  <si>
+    <t>Mahindra TUV300</t>
+  </si>
+  <si>
+    <t>Mahindra XUV 700</t>
+  </si>
+  <si>
+    <t>Maruti Brezza</t>
+  </si>
+  <si>
+    <t>Maruti Ciaz</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki S-Presso</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Swift Dzire 2017-2020</t>
+  </si>
+  <si>
+    <t>Maruti XL6</t>
+  </si>
+  <si>
+    <t>Nissan Micra</t>
+  </si>
+  <si>
+    <t>Renault Duster 2021-2022</t>
+  </si>
+  <si>
+    <t>Renault Triber 2020-2025</t>
+  </si>
+  <si>
+    <t>Tata Punch 2021-2026</t>
+  </si>
+  <si>
+    <t>Toyota Urban Cruiser 2020-2022</t>
+  </si>
+  <si>
+    <t>Volkswagen Ameo</t>
+  </si>
+  <si>
+    <t>BMW 3-Series</t>
+  </si>
+  <si>
+    <t>Datsun Redi Go 2016-2018</t>
+  </si>
+  <si>
+    <t>Datsun Redi-Go 2017-2022</t>
+  </si>
+  <si>
+    <t>Ford Aspire</t>
+  </si>
+  <si>
+    <t>Ford Figo 2020-2021</t>
   </si>
   <si>
     <t>Hyundai EON</t>
   </si>
   <si>
-    <t>Mahindra KUV 100 NXT 2020-2023</t>
-  </si>
-  <si>
-    <t>Mahindra Scorpio N</t>
-  </si>
-  <si>
-    <t>Mahindra XUV300</t>
-  </si>
-  <si>
-    <t>Maruti Grand Vitara</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki S-Presso</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Swift Dzire 2017-2020</t>
-  </si>
-  <si>
-    <t>Maruti Wagon R</t>
-  </si>
-  <si>
-    <t>Nissan Magnite 2020 - 2024</t>
-  </si>
-  <si>
-    <t>Renault Duster 2021-2022</t>
-  </si>
-  <si>
-    <t>Tata Punch 2021-2026</t>
-  </si>
-  <si>
-    <t>Toyota Glanza</t>
-  </si>
-  <si>
-    <t>Audi A4</t>
-  </si>
-  <si>
-    <t>Datsun Redi-Go 2017-2022</t>
-  </si>
-  <si>
-    <t>Ford Figo 2015-2018</t>
-  </si>
-  <si>
-    <t>Honda WR-V 2020-2023</t>
+    <t>Hyundai Exter</t>
+  </si>
+  <si>
+    <t>Hyundai Verna</t>
   </si>
   <si>
     <t>Hyundai i10</t>
   </si>
   <si>
+    <t>Hyundai i20 Active</t>
+  </si>
+  <si>
+    <t>KIA Carens</t>
+  </si>
+  <si>
     <t>KIA Seltos 2023-2026</t>
   </si>
   <si>
+    <t>MG Astor</t>
+  </si>
+  <si>
+    <t>MG Hector 2023-2025</t>
+  </si>
+  <si>
     <t>MG Hector Plus</t>
   </si>
   <si>
-    <t>Mahindra TUV300</t>
+    <t>MG Hector Plus 2023-2025</t>
+  </si>
+  <si>
+    <t>Mahindra Marazzo</t>
+  </si>
+  <si>
+    <t>Mahindra Scorpio Classic</t>
   </si>
   <si>
     <t>Mahindra Thar</t>
   </si>
   <si>
-    <t>Mahindra XUV 700</t>
-  </si>
-  <si>
-    <t>Maruti Brezza</t>
-  </si>
-  <si>
-    <t>Maruti Ciaz</t>
-  </si>
-  <si>
-    <t>Maruti Ignis</t>
-  </si>
-  <si>
-    <t>Maruti S-Cross</t>
+    <t>Mahindra XUV500 2020-2021</t>
+  </si>
+  <si>
+    <t>Mahindra eKUV100</t>
+  </si>
+  <si>
+    <t>Maruti Eeco</t>
+  </si>
+  <si>
+    <t>Maruti Ertiga</t>
   </si>
   <si>
     <t>Maruti S-Presso</t>
   </si>
   <si>
-    <t>Maruti XL6</t>
-  </si>
-  <si>
-    <t>Nissan Micra</t>
-  </si>
-  <si>
-    <t>Tata Harrier</t>
-  </si>
-  <si>
-    <t>Tata Tigor</t>
-  </si>
-  <si>
-    <t>Toyota Urban Cruiser 2020-2022</t>
-  </si>
-  <si>
-    <t>Volkswagen Ameo</t>
+    <t>Maruti Suzuki Celerio X 2020-2022</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Ciaz</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Eeco</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Estilo</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Grand Vitara</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki S-Cross</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Vitara Brezza 2020-2022</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz C-Class</t>
+  </si>
+  <si>
+    <t>Nissan Magnite Facelift</t>
+  </si>
+  <si>
+    <t>Nissan Sunny 2016-2020</t>
+  </si>
+  <si>
+    <t>Renault Kiger</t>
+  </si>
+  <si>
+    <t>Renault Kiger 2021-2025</t>
+  </si>
+  <si>
+    <t>Renault Triber</t>
+  </si>
+  <si>
+    <t>Skoda Slavia</t>
+  </si>
+  <si>
+    <t>Tata Altroz 2020-2025</t>
+  </si>
+  <si>
+    <t>Tata Punch</t>
+  </si>
+  <si>
+    <t>Tata Safari</t>
+  </si>
+  <si>
+    <t>Toyota Etios 2010-2011</t>
+  </si>
+  <si>
+    <t>Toyota Etios Liva 2011 -2012</t>
+  </si>
+  <si>
+    <t>Toyota Urban Cruiser HyRyder</t>
+  </si>
+  <si>
+    <t>Volkswagen Passat 2014-2020</t>
   </si>
   <si>
     <t>Volkswagen Polo</t>
   </si>
   <si>
-    <t>Volkswagen Taigun</t>
-  </si>
-  <si>
-    <t>Volkswagen Vento 2019-20</t>
+    <t>Volkswagen T-Roc 2021-2021</t>
   </si>
   <si>
     <t>Volkswagen Vento 2020-2022</t>
-  </si>
-  <si>
-    <t>BMW 3-Series</t>
-  </si>
-  <si>
-    <t>Ford Aspire</t>
-  </si>
-  <si>
-    <t>Ford Figo 2020-2021</t>
-  </si>
-  <si>
-    <t>Hyundai i20 Active</t>
-  </si>
-  <si>
-    <t>Hyundai i20 N Line</t>
-  </si>
-  <si>
-    <t>KIA Carens</t>
-  </si>
-  <si>
-    <t>MG Astor</t>
-  </si>
-  <si>
-    <t>MG Hector 2023-2025</t>
-  </si>
-  <si>
-    <t>MG Hector Plus 2023-2025</t>
-  </si>
-  <si>
-    <t>Mahindra Marazzo</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 2020-2021</t>
-  </si>
-  <si>
-    <t>Maruti Dzire facelift</t>
-  </si>
-  <si>
-    <t>Maruti Eeco</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Celerio X 2020-2022</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Ciaz</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Eeco</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Ertiga</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Estilo</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Grand Vitara</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Ignis</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Ritz</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki S-Cross</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Vitara Brezza 2020-2022</t>
-  </si>
-  <si>
-    <t>Nissan Micra Active</t>
-  </si>
-  <si>
-    <t>Nissan Sunny 2016-2020</t>
-  </si>
-  <si>
-    <t>Renault Kiger</t>
-  </si>
-  <si>
-    <t>Skoda Slavia</t>
-  </si>
-  <si>
-    <t>Tata Altroz 2020-2025</t>
-  </si>
-  <si>
-    <t>Tata Safari</t>
-  </si>
-  <si>
-    <t>Toyota Etios 2010-2011</t>
-  </si>
-  <si>
-    <t>Toyota Urban Cruiser HyRyder</t>
-  </si>
-  <si>
-    <t>Volkswagen Passat 2014-2020</t>
-  </si>
-  <si>
-    <t>Volkswagen T-Roc 2021-2021</t>
   </si>
 </sst>
 </file>
@@ -449,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1487,6 +1508,62 @@
         <v>130</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/testdata/usedCarData.xlsx
+++ b/testdata/usedCarData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
   <si>
     <t>City</t>
   </si>
@@ -41,141 +41,150 @@
     <t>Volkswagen</t>
   </si>
   <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>Mahindra</t>
+  </si>
+  <si>
     <t>Ford</t>
   </si>
   <si>
-    <t>Renault</t>
-  </si>
-  <si>
-    <t>Mahindra</t>
+    <t>Skoda</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Jeep</t>
   </si>
   <si>
     <t>Nissan</t>
   </si>
   <si>
-    <t>Skoda</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>Jeep</t>
-  </si>
-  <si>
-    <t>MG</t>
-  </si>
-  <si>
     <t>Audi</t>
   </si>
   <si>
+    <t>BMW</t>
+  </si>
+  <si>
     <t>Datsun</t>
   </si>
   <si>
-    <t>BMW</t>
-  </si>
-  <si>
     <t>Mercedes-Benz</t>
   </si>
   <si>
     <t>Hyundai Creta</t>
   </si>
   <si>
+    <t>Honda City</t>
+  </si>
+  <si>
     <t>KIA Seltos</t>
   </si>
   <si>
-    <t>Honda City</t>
-  </si>
-  <si>
     <t>Hyundai Grand i10</t>
   </si>
   <si>
+    <t>Honda Amaze</t>
+  </si>
+  <si>
+    <t>Hyundai Elite i20 2014-2017</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Celerio</t>
+  </si>
+  <si>
+    <t>Tata Tiago</t>
+  </si>
+  <si>
     <t>Ford EcoSport</t>
   </si>
   <si>
-    <t>Honda Amaze</t>
-  </si>
-  <si>
-    <t>Hyundai Elite i20 2014-2017</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Celerio</t>
+    <t>Hyundai Santro</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Baleno</t>
   </si>
   <si>
     <t>Maruti Suzuki Swift</t>
   </si>
   <si>
+    <t>Renault Kwid</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Dzire</t>
+  </si>
+  <si>
+    <t>Tata Nexon</t>
+  </si>
+  <si>
+    <t>Honda Jazz 2020-2023</t>
+  </si>
+  <si>
+    <t>KIA Sonet</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Alto 800 2016 -19</t>
+  </si>
+  <si>
     <t>Maruti Suzuki Wagon R</t>
   </si>
   <si>
-    <t>Maruti Suzuki Baleno</t>
-  </si>
-  <si>
-    <t>Tata Tiago</t>
-  </si>
-  <si>
-    <t>Hyundai Santro</t>
-  </si>
-  <si>
-    <t>KIA Sonet</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Alto 800 2016 -19</t>
-  </si>
-  <si>
-    <t>Renault Kwid</t>
-  </si>
-  <si>
-    <t>Tata Nexon</t>
-  </si>
-  <si>
-    <t>Honda Jazz 2020-2023</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Dzire</t>
+    <t>Hyundai Venue</t>
+  </si>
+  <si>
+    <t>Hyundai Venue 2022-2025</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Alto K10</t>
+  </si>
+  <si>
+    <t>Hyundai Grand i10 Nios</t>
+  </si>
+  <si>
+    <t>Jeep Compass</t>
   </si>
   <si>
     <t>Hyundai Elite i20</t>
   </si>
   <si>
-    <t>Hyundai Venue</t>
-  </si>
-  <si>
     <t>Hyundai i20</t>
   </si>
   <si>
-    <t>Jeep Compass</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Alto K10</t>
-  </si>
-  <si>
-    <t>Hyundai Grand i10 Nios</t>
-  </si>
-  <si>
-    <t>Hyundai Venue 2022-2025</t>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>Skoda Kushaq</t>
   </si>
   <si>
     <t>Volkswagen Ameo 2016- 2020</t>
   </si>
   <si>
-    <t>Maruti Swift</t>
+    <t>Maruti Baleno</t>
+  </si>
+  <si>
+    <t>Honda Brio</t>
+  </si>
+  <si>
+    <t>Honda WR-V 2020-2023</t>
+  </si>
+  <si>
+    <t>Maruti Alto K10</t>
+  </si>
+  <si>
+    <t>Maruti Grand Vitara</t>
+  </si>
+  <si>
+    <t>Maruti Wagon R</t>
   </si>
   <si>
     <t>Nissan Magnite 2020 - 2024</t>
   </si>
   <si>
-    <t>Skoda Kushaq</t>
-  </si>
-  <si>
-    <t>Maruti Alto K10</t>
-  </si>
-  <si>
-    <t>Maruti Grand Vitara</t>
-  </si>
-  <si>
-    <t>Maruti Wagon R</t>
-  </si>
-  <si>
     <t>Tata Altroz</t>
   </si>
   <si>
@@ -185,225 +194,219 @@
     <t>Toyota Glanza</t>
   </si>
   <si>
-    <t>Honda Brio</t>
+    <t>Volkswagen Virtus</t>
   </si>
   <si>
     <t>Honda Elevate</t>
   </si>
   <si>
+    <t>Hyundai Xcent</t>
+  </si>
+  <si>
+    <t>MG Hector</t>
+  </si>
+  <si>
+    <t>Mahindra Scorpio N</t>
+  </si>
+  <si>
+    <t>Mahindra XUV 700</t>
+  </si>
+  <si>
+    <t>Mahindra XUV300</t>
+  </si>
+  <si>
+    <t>Maruti Celerio</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Swift Dzire 2017-2020</t>
+  </si>
+  <si>
+    <t>Skoda Rapid 2021-2022</t>
+  </si>
+  <si>
+    <t>Tata Tigor</t>
+  </si>
+  <si>
+    <t>Toyota Urban Cruiser 2020-2022</t>
+  </si>
+  <si>
+    <t>Volkswagen Ameo</t>
+  </si>
+  <si>
+    <t>Volkswagen CrossPolo</t>
+  </si>
+  <si>
+    <t>Volkswagen Vento 2019-20</t>
+  </si>
+  <si>
+    <t>Audi A4</t>
+  </si>
+  <si>
     <t>Hyundai Aura</t>
   </si>
   <si>
-    <t>Hyundai Xcent</t>
-  </si>
-  <si>
-    <t>MG Hector</t>
-  </si>
-  <si>
-    <t>Mahindra Scorpio N</t>
-  </si>
-  <si>
-    <t>Mahindra XUV300</t>
-  </si>
-  <si>
-    <t>Maruti Baleno</t>
-  </si>
-  <si>
-    <t>Maruti Celerio</t>
+    <t>MG Hector Plus</t>
+  </si>
+  <si>
+    <t>Mahindra KUV 100 NXT 2020-2023</t>
+  </si>
+  <si>
+    <t>Mahindra TUV300</t>
+  </si>
+  <si>
+    <t>Maruti Brezza</t>
+  </si>
+  <si>
+    <t>Maruti Ciaz</t>
   </si>
   <si>
     <t>Maruti Ignis</t>
   </si>
   <si>
+    <t>Maruti Suzuki S-Presso</t>
+  </si>
+  <si>
     <t>Maruti Suzuki Swift Dzire</t>
   </si>
   <si>
-    <t>Skoda Rapid 2021-2022</t>
-  </si>
-  <si>
-    <t>Tata Tigor</t>
-  </si>
-  <si>
-    <t>Volkswagen CrossPolo</t>
+    <t>Maruti XL6</t>
+  </si>
+  <si>
+    <t>Renault Duster 2021-2022</t>
+  </si>
+  <si>
+    <t>Renault Kiger</t>
+  </si>
+  <si>
+    <t>Renault Kiger 2021-2025</t>
+  </si>
+  <si>
+    <t>Renault Triber</t>
+  </si>
+  <si>
+    <t>Renault Triber 2020-2025</t>
+  </si>
+  <si>
+    <t>Tata Altroz 2020-2025</t>
+  </si>
+  <si>
+    <t>Tata Punch</t>
+  </si>
+  <si>
+    <t>Volkswagen Polo</t>
   </si>
   <si>
     <t>Volkswagen Taigun</t>
   </si>
   <si>
-    <t>Volkswagen Vento 2019-20</t>
-  </si>
-  <si>
-    <t>Volkswagen Virtus</t>
-  </si>
-  <si>
-    <t>Audi A4</t>
+    <t>Volkswagen Vento 2020-2022</t>
+  </si>
+  <si>
+    <t>BMW 3-Series</t>
+  </si>
+  <si>
+    <t>Datsun Redi-Go 2017-2022</t>
+  </si>
+  <si>
+    <t>Ford Aspire</t>
   </si>
   <si>
     <t>Ford Figo 2015-2018</t>
   </si>
   <si>
-    <t>Honda WR-V 2020-2023</t>
-  </si>
-  <si>
-    <t>Mahindra TUV300</t>
-  </si>
-  <si>
-    <t>Mahindra XUV 700</t>
-  </si>
-  <si>
-    <t>Maruti Brezza</t>
-  </si>
-  <si>
-    <t>Maruti Ciaz</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki S-Presso</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Swift Dzire 2017-2020</t>
-  </si>
-  <si>
-    <t>Maruti XL6</t>
+    <t>Ford Figo 2020-2021</t>
+  </si>
+  <si>
+    <t>Hyundai EON</t>
+  </si>
+  <si>
+    <t>Hyundai Exter</t>
+  </si>
+  <si>
+    <t>Hyundai Verna</t>
+  </si>
+  <si>
+    <t>Hyundai i10</t>
+  </si>
+  <si>
+    <t>Hyundai i20 Active</t>
+  </si>
+  <si>
+    <t>KIA Carens</t>
+  </si>
+  <si>
+    <t>KIA Seltos 2023-2026</t>
+  </si>
+  <si>
+    <t>MG Astor</t>
+  </si>
+  <si>
+    <t>MG Hector 2023-2025</t>
+  </si>
+  <si>
+    <t>MG Hector Plus 2023-2025</t>
+  </si>
+  <si>
+    <t>Mahindra Marazzo</t>
+  </si>
+  <si>
+    <t>Mahindra Scorpio Classic</t>
+  </si>
+  <si>
+    <t>Mahindra XUV500 2020-2021</t>
+  </si>
+  <si>
+    <t>Mahindra eKUV100</t>
+  </si>
+  <si>
+    <t>Maruti Eeco</t>
+  </si>
+  <si>
+    <t>Maruti Ertiga</t>
+  </si>
+  <si>
+    <t>Maruti S-Presso</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Celerio X 2020-2022</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Ciaz</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Eeco</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Estilo</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Grand Vitara</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki S-Cross</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki Vitara Brezza 2020-2022</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz C-Class</t>
+  </si>
+  <si>
+    <t>Nissan Magnite Facelift</t>
   </si>
   <si>
     <t>Nissan Micra</t>
   </si>
   <si>
-    <t>Renault Duster 2021-2022</t>
-  </si>
-  <si>
-    <t>Renault Triber 2020-2025</t>
+    <t>Nissan Sunny 2016-2020</t>
+  </si>
+  <si>
+    <t>Skoda Slavia</t>
   </si>
   <si>
     <t>Tata Punch 2021-2026</t>
   </si>
   <si>
-    <t>Toyota Urban Cruiser 2020-2022</t>
-  </si>
-  <si>
-    <t>Volkswagen Ameo</t>
-  </si>
-  <si>
-    <t>BMW 3-Series</t>
-  </si>
-  <si>
-    <t>Datsun Redi Go 2016-2018</t>
-  </si>
-  <si>
-    <t>Datsun Redi-Go 2017-2022</t>
-  </si>
-  <si>
-    <t>Ford Aspire</t>
-  </si>
-  <si>
-    <t>Ford Figo 2020-2021</t>
-  </si>
-  <si>
-    <t>Hyundai EON</t>
-  </si>
-  <si>
-    <t>Hyundai Exter</t>
-  </si>
-  <si>
-    <t>Hyundai Verna</t>
-  </si>
-  <si>
-    <t>Hyundai i10</t>
-  </si>
-  <si>
-    <t>Hyundai i20 Active</t>
-  </si>
-  <si>
-    <t>KIA Carens</t>
-  </si>
-  <si>
-    <t>KIA Seltos 2023-2026</t>
-  </si>
-  <si>
-    <t>MG Astor</t>
-  </si>
-  <si>
-    <t>MG Hector 2023-2025</t>
-  </si>
-  <si>
-    <t>MG Hector Plus</t>
-  </si>
-  <si>
-    <t>MG Hector Plus 2023-2025</t>
-  </si>
-  <si>
-    <t>Mahindra Marazzo</t>
-  </si>
-  <si>
-    <t>Mahindra Scorpio Classic</t>
-  </si>
-  <si>
-    <t>Mahindra Thar</t>
-  </si>
-  <si>
-    <t>Mahindra XUV500 2020-2021</t>
-  </si>
-  <si>
-    <t>Mahindra eKUV100</t>
-  </si>
-  <si>
-    <t>Maruti Eeco</t>
-  </si>
-  <si>
-    <t>Maruti Ertiga</t>
-  </si>
-  <si>
-    <t>Maruti S-Presso</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Celerio X 2020-2022</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Ciaz</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Eeco</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Estilo</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Grand Vitara</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki S-Cross</t>
-  </si>
-  <si>
-    <t>Maruti Suzuki Vitara Brezza 2020-2022</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz C-Class</t>
-  </si>
-  <si>
-    <t>Nissan Magnite Facelift</t>
-  </si>
-  <si>
-    <t>Nissan Sunny 2016-2020</t>
-  </si>
-  <si>
-    <t>Renault Kiger</t>
-  </si>
-  <si>
-    <t>Renault Kiger 2021-2025</t>
-  </si>
-  <si>
-    <t>Renault Triber</t>
-  </si>
-  <si>
-    <t>Skoda Slavia</t>
-  </si>
-  <si>
-    <t>Tata Altroz 2020-2025</t>
-  </si>
-  <si>
-    <t>Tata Punch</t>
-  </si>
-  <si>
     <t>Tata Safari</t>
   </si>
   <si>
@@ -419,13 +422,7 @@
     <t>Volkswagen Passat 2014-2020</t>
   </si>
   <si>
-    <t>Volkswagen Polo</t>
-  </si>
-  <si>
     <t>Volkswagen T-Roc 2021-2021</t>
-  </si>
-  <si>
-    <t>Volkswagen Vento 2020-2022</t>
   </si>
 </sst>
 </file>
@@ -470,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1556,14 +1553,6 @@
         <v>136</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B136" t="s" s="0">
-        <v>137</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
